--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_13_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_13_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1807905.300170768</v>
+        <v>1803593.528563168</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12444970.70772257</v>
+        <v>12445534.67060185</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>428022.1753582563</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10178116.09743114</v>
+        <v>10182314.6790042</v>
       </c>
     </row>
     <row r="11">
@@ -661,22 +661,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="F2" t="n">
-        <v>215.0845781150033</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="G2" t="n">
         <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>215.0845781150035</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.63054157393842</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>148.466561390878</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>54.19406627517205</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>17.28688718947265</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>26.20010773583513</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>270.6457911193447</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>270.6457911193447</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.1847050820836</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>270.6457911193447</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>212.5689651179052</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>109.317049263441</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -983,19 +983,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0098845019834</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>60.93010537065945</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.47989429600504</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.7892531875067</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1043,7 +1043,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1071,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2.21468809059035</v>
       </c>
       <c r="I7" t="n">
-        <v>121.8269758336435</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>14.31143149181129</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>204.531638012045</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>69.19209243555225</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>170.558787649064</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>123.4854171348405</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>272.6855712847162</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1226,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3343964518635</v>
+        <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>92.83909691614502</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.24979976115223</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838588</v>
+        <v>134.3791152901738</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0665623188214</v>
+        <v>192.0697045406877</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092030868072</v>
+        <v>224.0328052099121</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>90.06308666747704</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>67.76482435977958</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.5630920045443</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.61259060081962</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>148.9055307001842</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1463,10 +1463,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.4224477376697</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>84.02406320561455</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.4255876952162</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
-        <v>188.3907690366107</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7492064608734</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.1834952849959</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>144.4286493356922</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108355</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.338488358459</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4819944627618</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1854515484204</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1824,16 +1824,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>49.48749137895456</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>154.2390706773477</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>35.88641949135544</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>62.36981422367011</v>
+        <v>131.952790326202</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2332,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187871</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>55.52079624060555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>180.8758919807147</v>
       </c>
     </row>
     <row r="26">
@@ -2611,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2715,16 +2715,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2772,13 +2772,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>185.404873121236</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2806,10 +2806,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>206.5358970628709</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>26.1362719570585</v>
       </c>
       <c r="T34" t="n">
-        <v>107.4021082756239</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3438,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>126.4643665640119</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>41.02686156550217</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3666,10 +3666,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>1.799772605716168</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>36.39209596079192</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -3711,7 +3711,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3793,10 +3793,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>35.88641949135589</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>184.61419076404</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4143,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>41.55695577161151</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>160.6789846282037</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>900.5447187946889</v>
+        <v>683.2875691835748</v>
       </c>
       <c r="C2" t="n">
-        <v>634.167062227511</v>
+        <v>683.2875691835748</v>
       </c>
       <c r="D2" t="n">
-        <v>634.167062227511</v>
+        <v>683.2875691835748</v>
       </c>
       <c r="E2" t="n">
-        <v>634.167062227511</v>
+        <v>416.9099126163967</v>
       </c>
       <c r="F2" t="n">
-        <v>416.9099126163966</v>
+        <v>150.5322560492186</v>
       </c>
       <c r="G2" t="n">
-        <v>403.9460998429521</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H2" t="n">
         <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
         <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991319</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358417</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4357,25 +4357,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946889</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="T2" t="n">
-        <v>900.5447187946889</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="U2" t="n">
-        <v>900.5447187946889</v>
+        <v>683.2875691835748</v>
       </c>
       <c r="V2" t="n">
-        <v>900.5447187946889</v>
+        <v>683.2875691835748</v>
       </c>
       <c r="W2" t="n">
-        <v>900.5447187946889</v>
+        <v>683.2875691835748</v>
       </c>
       <c r="X2" t="n">
-        <v>900.5447187946889</v>
+        <v>683.2875691835748</v>
       </c>
       <c r="Y2" t="n">
-        <v>900.5447187946889</v>
+        <v>683.2875691835748</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>620.907837242328</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C3" t="n">
-        <v>620.907837242328</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D3" t="n">
-        <v>471.9734275810767</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E3" t="n">
-        <v>312.7359725756212</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F3" t="n">
-        <v>166.2014146025062</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>28.80472815157344</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>28.80472815157344</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004801</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699343</v>
+        <v>192.1295835699346</v>
       </c>
       <c r="L3" t="n">
-        <v>338.874007230231</v>
+        <v>338.8740072302313</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267547</v>
+        <v>529.4746963267552</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293598</v>
+        <v>739.5286634293602</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560896</v>
+        <v>909.46721075609</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>1026.524810789494</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4439,22 +4439,22 @@
         <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>1036.519636212815</v>
+        <v>886.5534125856657</v>
       </c>
       <c r="U3" t="n">
-        <v>1036.519636212815</v>
+        <v>886.5534125856657</v>
       </c>
       <c r="V3" t="n">
-        <v>1036.519636212815</v>
+        <v>651.401304353923</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.519636212815</v>
+        <v>397.1639476257213</v>
       </c>
       <c r="X3" t="n">
-        <v>828.6681360072819</v>
+        <v>189.3124474201885</v>
       </c>
       <c r="Y3" t="n">
-        <v>620.907837242328</v>
+        <v>189.3124474201885</v>
       </c>
     </row>
     <row r="4">
@@ -4464,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.09711040012049</v>
+        <v>652.4144760322552</v>
       </c>
       <c r="C4" t="n">
-        <v>21.09711040012049</v>
+        <v>483.4782931043483</v>
       </c>
       <c r="D4" t="n">
-        <v>21.09711040012049</v>
+        <v>333.3616536920125</v>
       </c>
       <c r="E4" t="n">
-        <v>21.09711040012049</v>
+        <v>185.4485601096194</v>
       </c>
       <c r="F4" t="n">
-        <v>21.09711040012049</v>
+        <v>38.55861261170904</v>
       </c>
       <c r="G4" t="n">
-        <v>21.09711040012049</v>
+        <v>38.55861261170904</v>
       </c>
       <c r="H4" t="n">
-        <v>21.09711040012049</v>
+        <v>38.55861261170904</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551008</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375339</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227051</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075547</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4518,22 +4518,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>829.3864837640389</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>563.0088271968609</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V4" t="n">
-        <v>563.0088271968609</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W4" t="n">
-        <v>296.631170629683</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X4" t="n">
-        <v>296.631170629683</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y4" t="n">
-        <v>75.83859148615286</v>
+        <v>834.0629408624949</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>568.4108372680216</v>
+        <v>307.3840804899465</v>
       </c>
       <c r="C5" t="n">
-        <v>568.4108372680216</v>
+        <v>307.3840804899465</v>
       </c>
       <c r="D5" t="n">
-        <v>568.4108372680216</v>
+        <v>307.3840804899465</v>
       </c>
       <c r="E5" t="n">
-        <v>568.4108372680216</v>
+        <v>307.3840804899465</v>
       </c>
       <c r="F5" t="n">
-        <v>295.0312502787846</v>
+        <v>300.438579740743</v>
       </c>
       <c r="G5" t="n">
-        <v>21.65166328954757</v>
+        <v>287.4747669672986</v>
       </c>
       <c r="H5" t="n">
-        <v>21.65166328954757</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I5" t="n">
-        <v>21.65166328954757</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>51.85289433431126</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>147.8552290548796</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L5" t="n">
-        <v>303.8563762408151</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>509.107148132344</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N5" t="n">
-        <v>722.2929004749864</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O5" t="n">
-        <v>910.2628999284816</v>
+        <v>888.5149683358417</v>
       </c>
       <c r="P5" t="n">
-        <v>1036.189944763449</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q5" t="n">
-        <v>1082.583164477379</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R5" t="n">
-        <v>1082.583164477379</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1082.583164477379</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>868.255179545981</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>868.255179545981</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>868.255179545981</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>594.875592556744</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X5" t="n">
-        <v>594.875592556744</v>
+        <v>840.1393936243026</v>
       </c>
       <c r="Y5" t="n">
-        <v>594.875592556744</v>
+        <v>573.7617370571245</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>423.7374861421222</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C6" t="n">
-        <v>423.7374861421222</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D6" t="n">
-        <v>423.7374861421222</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E6" t="n">
-        <v>264.5000311366667</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F6" t="n">
-        <v>264.5000311366667</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G6" t="n">
-        <v>127.1163094174915</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H6" t="n">
-        <v>65.5707484370274</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I6" t="n">
-        <v>21.65166328954757</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>21.65166328954757</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
-        <v>98.38754287825522</v>
+        <v>192.1295835699346</v>
       </c>
       <c r="L6" t="n">
-        <v>247.8909439361439</v>
+        <v>338.8740072302313</v>
       </c>
       <c r="M6" t="n">
-        <v>515.8302771442951</v>
+        <v>529.4746963267552</v>
       </c>
       <c r="N6" t="n">
-        <v>729.1890538762266</v>
+        <v>739.5286634293602</v>
       </c>
       <c r="O6" t="n">
-        <v>902.150856366822</v>
+        <v>909.46721075609</v>
       </c>
       <c r="P6" t="n">
-        <v>1021.634885204111</v>
+        <v>1026.524810789494</v>
       </c>
       <c r="Q6" t="n">
-        <v>1082.583164477379</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1082.583164477379</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1082.583164477379</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>885.8263430758567</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>885.8263430758567</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>885.8263430758567</v>
+        <v>801.3675279810725</v>
       </c>
       <c r="W6" t="n">
-        <v>631.588986347655</v>
+        <v>547.1301712528709</v>
       </c>
       <c r="X6" t="n">
-        <v>423.7374861421222</v>
+        <v>339.2786710473381</v>
       </c>
       <c r="Y6" t="n">
-        <v>423.7374861421222</v>
+        <v>131.5183722823842</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>306.0551535404426</v>
+        <v>652.4144760322549</v>
       </c>
       <c r="C7" t="n">
-        <v>306.0551535404426</v>
+        <v>483.478293104348</v>
       </c>
       <c r="D7" t="n">
-        <v>306.0551535404426</v>
+        <v>333.3616536920123</v>
       </c>
       <c r="E7" t="n">
-        <v>306.0551535404426</v>
+        <v>185.4485601096192</v>
       </c>
       <c r="F7" t="n">
-        <v>159.1652060425322</v>
+        <v>38.55861261170881</v>
       </c>
       <c r="G7" t="n">
-        <v>159.1652060425322</v>
+        <v>38.55861261170881</v>
       </c>
       <c r="H7" t="n">
-        <v>159.1652060425322</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I7" t="n">
-        <v>36.10765469541757</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J7" t="n">
-        <v>21.65166328954757</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
-        <v>128.2056025464436</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>320.0843941609297</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M7" t="n">
-        <v>532.7827996211346</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>745.8583288256607</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O7" t="n">
-        <v>926.6517718053142</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P7" t="n">
-        <v>1057.831113077932</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q7" t="n">
-        <v>1065.217809258081</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1065.217809258081</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>858.6201951045006</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>858.6201951045006</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>858.6201951045006</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>603.9357068986137</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>534.0447044384599</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X7" t="n">
-        <v>306.0551535404426</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y7" t="n">
-        <v>306.0551535404426</v>
+        <v>834.0629408624947</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1313.273607737845</v>
+        <v>1378.532714887381</v>
       </c>
       <c r="C8" t="n">
-        <v>944.3110907974335</v>
+        <v>1378.532714887381</v>
       </c>
       <c r="D8" t="n">
-        <v>944.3110907974335</v>
+        <v>1020.267016280631</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3110907974335</v>
+        <v>634.4787636823867</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078259</v>
+        <v>223.4928588927791</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.21125520685586</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.21125520685586</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.21125520685586</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.3702251467179</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.1757437607439</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872924</v>
+        <v>795.1862829045954</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1219.647962995231</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1655.59168520959</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2053.905718940603</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2359.356530550206</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2540.564622661173</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2560.562760342793</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2435.830015762146</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2435.830015762146</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.31341879663</v>
+        <v>2435.830015762146</v>
       </c>
       <c r="V8" t="n">
-        <v>1975.31341879663</v>
+        <v>2104.767128418575</v>
       </c>
       <c r="W8" t="n">
-        <v>1975.31341879663</v>
+        <v>1751.998473148461</v>
       </c>
       <c r="X8" t="n">
-        <v>1699.873447801967</v>
+        <v>1378.532714887381</v>
       </c>
       <c r="Y8" t="n">
-        <v>1699.873447801967</v>
+        <v>1378.532714887381</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041138965633</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8510846154363</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9166749541851</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792199487295</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446619756144</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182521</v>
+        <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057906</v>
+        <v>71.66559839993893</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.21125520685586</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.3188829507241</v>
       </c>
       <c r="K9" t="n">
-        <v>299.2648838844856</v>
+        <v>684.7364639442768</v>
       </c>
       <c r="L9" t="n">
-        <v>593.9684409159572</v>
+        <v>979.272447377759</v>
       </c>
       <c r="M9" t="n">
-        <v>957.2304598751772</v>
+        <v>1342.338915852061</v>
       </c>
       <c r="N9" t="n">
-        <v>1344.515588472122</v>
+        <v>1729.423318324632</v>
       </c>
       <c r="O9" t="n">
-        <v>1676.586023648284</v>
+        <v>2061.310128312022</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434119</v>
+        <v>2308.345486741647</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2536.272628442635</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2560.562760342793</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>2424.826280251708</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>2230.816477685357</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520714847062</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.36860661532</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131249887118</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.279749681585</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519450916631</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>565.4415891498739</v>
+        <v>461.2368923627319</v>
       </c>
       <c r="C10" t="n">
-        <v>565.4415891498739</v>
+        <v>292.300709434825</v>
       </c>
       <c r="D10" t="n">
-        <v>415.3249497375382</v>
+        <v>142.1840700224892</v>
       </c>
       <c r="E10" t="n">
-        <v>415.3249497375382</v>
+        <v>51.21125520685586</v>
       </c>
       <c r="F10" t="n">
-        <v>268.4350022396278</v>
+        <v>51.21125520685586</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>51.21125520685586</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.21125520685586</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.21125520685586</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.63468308380192</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.2500215676576</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.3850043368933</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>823.8653899904054</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245823</v>
+        <v>1122.635640101615</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1382.582027931094</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1581.490387616503</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1635.769145477367</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1635.769145477367</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.23396574994</v>
+        <v>1635.769145477367</v>
       </c>
       <c r="T10" t="n">
-        <v>1337.23396574994</v>
+        <v>1635.769145477367</v>
       </c>
       <c r="U10" t="n">
-        <v>1048.115628253778</v>
+        <v>1635.769145477367</v>
       </c>
       <c r="V10" t="n">
-        <v>793.4311400478913</v>
+        <v>1381.08465727148</v>
       </c>
       <c r="W10" t="n">
-        <v>793.4311400478913</v>
+        <v>1091.667487234519</v>
       </c>
       <c r="X10" t="n">
-        <v>565.4415891498739</v>
+        <v>863.6779363365017</v>
       </c>
       <c r="Y10" t="n">
-        <v>565.4415891498739</v>
+        <v>642.8853571929716</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.224468905844</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.261951965432</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1589.996253358682</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.208000760437</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.22209597083</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.2389888872365</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>92.81162322608054</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>92.81162322608054</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>372.3074987251939</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>841.9378825128761</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1461.457663018651</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2182.462224957689</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2919.747202874795</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3602.609239333933</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4150.915188021281</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4514.497374127289</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4640.581161304027</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4555.113898070876</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4404.704271100993</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.260941820542</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.198054476972</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.429399206857</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3093.963640945778</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2703.824308969966</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>942.6241165038822</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C12" t="n">
-        <v>768.1710872227552</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D12" t="n">
-        <v>619.2366775615039</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>459.9992225560484</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>313.4646645829333</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>177.6844143428629</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>92.81162322608054</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>92.81162322608054</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>240.4596049779265</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>240.4596049779265</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>240.4596049779265</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M12" t="n">
-        <v>832.4779592300542</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1454.57392262939</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O12" t="n">
-        <v>1867.304633125007</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P12" t="n">
-        <v>2286.888151551083</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2517.44942553633</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
-        <v>2552.77562977024</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.163925027597</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T12" t="n">
-        <v>2243.870218930011</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U12" t="n">
-        <v>2015.840717454381</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V12" t="n">
-        <v>1780.688609222638</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W12" t="n">
-        <v>1526.451252494437</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X12" t="n">
-        <v>1318.599752288904</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
-        <v>1110.83945352395</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>494.0589900220732</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C13" t="n">
-        <v>325.1228070941663</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="D13" t="n">
-        <v>175.4425088264937</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="E13" t="n">
-        <v>175.4425088264937</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>175.4425088264937</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>175.4425088264937</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.4425088264937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>92.81162322608054</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>171.7937461156345</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>431.4224730861981</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>819.1842911693324</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1238.413883213792</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1653.109749005499</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2020.132206020528</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2310.662640856733</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2428.375774410168</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2360.516429368669</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2177.346239107599</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1957.667456821981</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1668.591243136708</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1413.906754930821</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1124.48958489386</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>896.5000339958431</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>675.7074548523129</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5260,40 +5260,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5369,13 +5369,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>806.8386896933887</v>
+        <v>718.5507239167111</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9025067654818</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5472,16 +5472,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1638.398488825459</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1348.981318788498</v>
       </c>
       <c r="X16" t="n">
-        <v>988.4871545236284</v>
+        <v>1120.991767890481</v>
       </c>
       <c r="Y16" t="n">
-        <v>988.4871545236284</v>
+        <v>900.1991887469509</v>
       </c>
     </row>
     <row r="17">
@@ -5497,13 +5497,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5828,25 +5828,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327643</v>
+        <v>915.1035305473698</v>
       </c>
       <c r="C22" t="n">
-        <v>700.7543264856228</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D22" t="n">
-        <v>550.637687073287</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806534</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.402603663004</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="23">
@@ -5971,28 +5971,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>95.58405025273903</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>692.9625378792909</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1320.560501433898</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1872.470231673185</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2296.093381168253</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3007.624207651098</v>
+        <v>800.6374272687975</v>
       </c>
       <c r="C25" t="n">
-        <v>2838.688024723192</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D25" t="n">
-        <v>2688.571385310856</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E25" t="n">
-        <v>2540.658291728463</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>2393.768344230552</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>2393.768344230552</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>2393.768344230552</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>4690.833152398593</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>4471.231687421535</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>4182.156460765733</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>3927.471972559846</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>3638.054802522885</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>3410.065251624868</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>3189.272672481338</v>
+        <v>800.6374272687975</v>
       </c>
     </row>
     <row r="26">
@@ -6220,7 +6220,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192599</v>
@@ -6232,13 +6232,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6247,28 +6247,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6317,7 +6317,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6420,16 +6420,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1501.108204237296</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6454,28 +6454,28 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2951.54259528685</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>2782.606412358944</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>2632.489772946608</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>2484.576679364215</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>2337.686731866304</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>2337.686731866304</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.255922673039</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>3677.571434467152</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>3388.154264430192</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>3160.164713532175</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>2951.54259528685</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6697,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6885,25 +6885,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2420.562808876161</v>
       </c>
       <c r="T34" t="n">
-        <v>2338.476105524075</v>
+        <v>2420.562808876161</v>
       </c>
       <c r="U34" t="n">
-        <v>2049.400878868273</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="V34" t="n">
-        <v>1794.716390662386</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W34" t="n">
-        <v>1505.299220625425</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X34" t="n">
-        <v>1277.309669727408</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y34" t="n">
-        <v>1056.517090583878</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="35">
@@ -6937,13 +6937,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>917.5010142286973</v>
+        <v>916.3099000622261</v>
       </c>
       <c r="C37" t="n">
-        <v>748.5648313007904</v>
+        <v>747.3737171343192</v>
       </c>
       <c r="D37" t="n">
-        <v>598.4481918884546</v>
+        <v>597.2570777219835</v>
       </c>
       <c r="E37" t="n">
-        <v>450.5350983060615</v>
+        <v>449.3439841395904</v>
       </c>
       <c r="F37" t="n">
-        <v>303.6451508081511</v>
+        <v>302.45403664168</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>135.2579373565599</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>135.2579373565599</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7125,22 +7125,22 @@
         <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.556199993915</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W37" t="n">
-        <v>1327.139029956954</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X37" t="n">
-        <v>1099.149479058937</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y37" t="n">
-        <v>1099.149479058937</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="38">
@@ -7156,7 +7156,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
@@ -7171,22 +7171,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7195,7 +7195,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7268,13 +7268,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D40" t="n">
-        <v>343.0994656851783</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="E40" t="n">
-        <v>343.0994656851783</v>
+        <v>379.8591585748671</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>379.8591585748671</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>212.6630592897471</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="41">
@@ -7505,13 +7505,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3045.530642171613</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C43" t="n">
-        <v>2876.594459243706</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D43" t="n">
-        <v>2876.594459243706</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E43" t="n">
-        <v>2728.681365661313</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F43" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2410.714175003133</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.9326143059</v>
+        <v>2410.714175003133</v>
       </c>
       <c r="T43" t="n">
-        <v>4440.9326143059</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="U43" t="n">
-        <v>4151.857387650098</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V43" t="n">
-        <v>3965.37840708036</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W43" t="n">
-        <v>3675.9612370434</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X43" t="n">
-        <v>3447.971686145383</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y43" t="n">
-        <v>3227.179107001853</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="44">
@@ -7651,10 +7651,10 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014779</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7730,22 +7730,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>763.7541388327643</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
-        <v>594.8179559048574</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>444.7013164925216</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>444.7013164925216</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>444.7013164925216</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>277.5052172074016</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>135.7933860495997</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704551</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806534</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.402603663004</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069065</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>97.32166909127264</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>59.01279547936772</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,16 +8294,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8385865109867296</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>97.32166909127264</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>74.86772486989327</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>31.30865319142742</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9556134883073923</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>113.8482254012555</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>50.29152613728999</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4319777332164563</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>2.005313310877</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23661,7 +23661,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>202.6501519448734</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>71.47058471168947</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>250.2980548978887</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>104.8770068749577</v>
+        <v>35.29403077242586</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>25.74504007795998</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>37.70876137138006</v>
       </c>
     </row>
     <row r="26">
@@ -24499,7 +24499,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24660,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>66.73277020259198</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>12.04875628922389</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25095,7 +25095,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>154.8900140445861</v>
       </c>
       <c r="T34" t="n">
-        <v>110.0033420516644</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>39.05977172825693</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>40.23897475306337</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>146.8157004124962</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>103.902616885432</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>30.48882721876579</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>67.52345255978804</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>39.70888054695403</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>894317.3227858301</v>
+        <v>894250.9979781549</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>898273.679900657</v>
+        <v>898266.689534026</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>870810.0260560436</v>
+        <v>875611.8662119168</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>875611.8662119168</v>
+        <v>875611.8662119169</v>
       </c>
     </row>
     <row r="9">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>875611.8662119169</v>
+        <v>875611.8662119168</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583911</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583909</v>
       </c>
       <c r="E2" t="n">
-        <v>541808.8458556711</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="F2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="G2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="H2" t="n">
         <v>544823.954790754</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>544823.9547907541</v>
-      </c>
-      <c r="I2" t="n">
-        <v>544823.9547907538</v>
       </c>
       <c r="J2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="K2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="L2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907542</v>
       </c>
       <c r="M2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="N2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.954790754</v>
       </c>
       <c r="O2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="P2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907541</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>7673.230953342744</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>383864.7205861335</v>
+        <v>390680.0076580813</v>
       </c>
       <c r="E3" t="n">
-        <v>495753.0386361763</v>
+        <v>507909.2320606911</v>
       </c>
       <c r="F3" t="n">
-        <v>11452.26311504116</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911401</v>
+        <v>68999.1544191141</v>
       </c>
       <c r="K3" t="n">
-        <v>1784.052100575922</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>93628.24182084495</v>
+        <v>95270.23779101823</v>
       </c>
       <c r="M3" t="n">
-        <v>129476.5444317441</v>
+        <v>132717.9756954684</v>
       </c>
       <c r="N3" t="n">
-        <v>3077.01735570473</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>247648.5670423891</v>
+        <v>247648.567042389</v>
       </c>
       <c r="C4" t="n">
-        <v>245563.5846255594</v>
+        <v>247648.567042389</v>
       </c>
       <c r="D4" t="n">
-        <v>135522.1369769832</v>
+        <v>135650.8557716738</v>
       </c>
       <c r="E4" t="n">
-        <v>8720.723770518931</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="G4" t="n">
         <v>8727.256391744282</v>
@@ -26438,7 +26438,7 @@
         <v>8727.256391744282</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
         <v>8727.256391744282</v>
@@ -26450,16 +26450,16 @@
         <v>8727.256391744282</v>
       </c>
       <c r="M4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="O4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="P4" t="n">
         <v>8727.256391744284</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8727.256391744284</v>
-      </c>
-      <c r="O4" t="n">
-        <v>8727.256391744284</v>
-      </c>
-      <c r="P4" t="n">
-        <v>8727.256391744282</v>
       </c>
     </row>
     <row r="5">
@@ -26469,16 +26469,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="C5" t="n">
-        <v>63599.34810691494</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92902.86757567916</v>
       </c>
       <c r="E5" t="n">
-        <v>100142.1285138384</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-436581.1561794573</v>
       </c>
       <c r="C6" t="n">
-        <v>237367.0309725742</v>
+        <v>243506.824411736</v>
       </c>
       <c r="D6" t="n">
-        <v>-58121.43534456982</v>
+        <v>-65030.53634704337</v>
       </c>
       <c r="E6" t="n">
-        <v>-62807.04506486257</v>
+        <v>-73282.44273994555</v>
       </c>
       <c r="F6" t="n">
-        <v>423521.9054600613</v>
+        <v>434626.7893207458</v>
       </c>
       <c r="G6" t="n">
-        <v>434974.1685751026</v>
+        <v>434626.7893207456</v>
       </c>
       <c r="H6" t="n">
-        <v>434974.1685751028</v>
+        <v>434626.7893207457</v>
       </c>
       <c r="I6" t="n">
-        <v>434974.1685751024</v>
+        <v>434626.7893207458</v>
       </c>
       <c r="J6" t="n">
-        <v>365975.0141559885</v>
+        <v>365627.6349016314</v>
       </c>
       <c r="K6" t="n">
-        <v>433190.1164745266</v>
+        <v>434626.7893207454</v>
       </c>
       <c r="L6" t="n">
-        <v>341345.9267542575</v>
+        <v>339356.5515297276</v>
       </c>
       <c r="M6" t="n">
-        <v>305497.6241433584</v>
+        <v>301908.8136252771</v>
       </c>
       <c r="N6" t="n">
-        <v>431897.1512193978</v>
+        <v>434626.7893207457</v>
       </c>
       <c r="O6" t="n">
-        <v>434974.1685751025</v>
+        <v>434626.7893207458</v>
       </c>
       <c r="P6" t="n">
-        <v>434974.1685751025</v>
+        <v>434626.7893207458</v>
       </c>
     </row>
   </sheetData>
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>620.0222021494858</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>933.7024595627848</v>
       </c>
       <c r="E3" t="n">
-        <v>1358.041048716386</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>270.6457911193447</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.1406900856982</v>
       </c>
       <c r="E4" t="n">
-        <v>1160.145290326007</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>5.967188380007542</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>314.0426899680533</v>
+        <v>319.6474457933065</v>
       </c>
       <c r="E3" t="n">
-        <v>423.9761565988467</v>
+        <v>434.2730407788891</v>
       </c>
       <c r="F3" t="n">
-        <v>9.93445162528792</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,19 +27011,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>6.931911117838517</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>369.9390409806942</v>
+        <v>376.4268100841919</v>
       </c>
       <c r="E4" t="n">
-        <v>519.5604582259679</v>
+        <v>532.5675980139501</v>
       </c>
       <c r="F4" t="n">
-        <v>12.56299777364165</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,19 +27035,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015059</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
-        <v>6.931911117838744</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>369.9390409806945</v>
+        <v>376.4268100841919</v>
       </c>
       <c r="M4" t="n">
-        <v>519.5604582259679</v>
+        <v>532.5675980139501</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364165</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27257,19 +27257,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
-        <v>6.931911117838517</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>369.9390409806942</v>
+        <v>376.4268100841919</v>
       </c>
       <c r="M4" t="n">
-        <v>519.5604582259679</v>
+        <v>532.5675980139501</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364165</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27381,22 +27381,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707555</v>
       </c>
       <c r="F2" t="n">
-        <v>191.7914676267082</v>
+        <v>143.1621657402052</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>50.47975262776185</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>36.063589763279</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>36.29126242756718</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27511,22 +27511,22 @@
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>46.3744261939988</v>
       </c>
       <c r="U3" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>125.6379139067652</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.8836670385466</v>
@@ -27557,10 +27557,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>104.8636863353359</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27590,16 +27590,16 @@
         <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117135</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>356.5337339276455</v>
+        <v>119.0199616619743</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>136.2302546223668</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>142.1643948293603</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>313.947958386065</v>
+        <v>50.47975262776174</v>
       </c>
       <c r="I5" t="n">
-        <v>114.3817953056097</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.2210507662196</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1462487825221</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>78.59517759806835</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>157.1621355605638</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545473</v>
       </c>
     </row>
     <row r="6">
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>57.2161343864263</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27703,19 +27703,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>38.42525500609014</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,19 +27742,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>17.35562383539667</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>146.9115293481485</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8536430901046</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27763,7 +27763,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8729065349105</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>152.286488676256</v>
+        <v>150.1674712452664</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.0207715110817</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>223.1683691822117</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2580435661155</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>217.3309059010388</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>240.9903721391855</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425465005</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0453666896856</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>97.04552939375282</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27988,7 +27988,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.776449164520784</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>56.37087597909213</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>98.5417756850246</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>104.8162497430994</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640952</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6738502503844</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31041,31 +31041,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31077,7 +31077,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31126,16 +31126,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31144,25 +31144,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,16 +31202,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31223,25 +31223,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.492551566430092</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
-        <v>25.52684372970218</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>96.09409426479621</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J5" t="n">
-        <v>211.5521985112962</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>317.061906318282</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
-        <v>393.343331319417</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>437.6702452389181</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N5" t="n">
-        <v>444.7522073770377</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O5" t="n">
-        <v>419.9668977383485</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P5" t="n">
-        <v>358.4320309421055</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q5" t="n">
-        <v>269.1675279693278</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R5" t="n">
-        <v>156.5727423347644</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.79901882002577</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T5" t="n">
-        <v>10.91114448204773</v>
+        <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1994041253144073</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.333632661227196</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H6" t="n">
-        <v>12.88008385974687</v>
+        <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.91673855541004</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J6" t="n">
-        <v>125.99904015568</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
-        <v>215.3524284579021</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>289.567916201984</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
-        <v>337.9121001714697</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N6" t="n">
-        <v>346.8556279741732</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>317.3051358490864</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>254.6653456338143</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
-        <v>170.23703935244</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.80221031724646</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S6" t="n">
-        <v>24.77164175568934</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.37547550731488</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0877389908702103</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.118072823548253</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.940683831183565</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I7" t="n">
-        <v>33.62349909361475</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>79.04774862486148</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K7" t="n">
-        <v>129.8997334995152</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
-        <v>166.2269359664376</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M7" t="n">
-        <v>175.2629972403866</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N7" t="n">
-        <v>171.0956348980705</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>158.0345114593477</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
-        <v>135.2258258589632</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>93.62335252457235</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R7" t="n">
-        <v>50.27261986608779</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>19.48496002492728</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>4.777220246069807</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06098579037535933</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.753577726885564</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.4413278954668</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7098053157559</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.580217597254</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.46916277632</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.3427171354942</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.0954050359953</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>669.760257752509</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.4356192307906</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.7691690983032</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.3441667542137</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.7856768864755</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.53465245140488</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.43128649944157</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3002862181508451</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.008341139436934</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.39634732035144</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.14683309026285</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>189.7441951079429</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.3030514502175</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.065474157129</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>508.8678404617177</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.3360580152224</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>477.8354464519093</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.5050724947597</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.3629847463707</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.6933209204791</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.30405581366407</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.095024154133952</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321277065419036</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.683725746752563</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>14.96985254840007</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.6342251841589</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>119.0394102954062</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.6183185772522</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>250.3240987490128</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>263.9316641023131</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.6559590462355</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>237.9869810046259</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>203.6389757708735</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>140.9890713939805</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.70643221307429</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.34274778658783</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.194100917942766</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09183958618650352</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.459461502377426</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>55.91171011122283</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>463.3649706874065</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>694.4639760830431</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>861.5439710364265</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>958.633669529331</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>974.1453645229609</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>919.8578442086953</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>785.0773883687525</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>589.5604233148607</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>342.9428985987163</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>124.4074789854257</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>23.8987927266572</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.921069425540905</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.21138103088191</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>740.1323715504302</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>759.7214730927639</v>
+        <v>151.9914336104071</v>
       </c>
       <c r="O12" t="n">
-        <v>559.495952015774</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>557.7961431982454</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>181.3625385436714</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.25758340862161</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.77395965821093</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.448926481291843</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.77318271548567</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>73.64589818284927</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>173.1391022273333</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>284.5207311900886</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>364.0885788640619</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>383.8803574265022</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>374.7525405416875</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>346.1446266465963</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>296.1865264282424</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>205.0641983561742</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.1126397860859</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.67810967851329</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
-        <v>10.46359496551969</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32089,16 +32089,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O15" t="n">
-        <v>370.9642309107746</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32311,31 +32311,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32548,13 +32548,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32566,10 +32566,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32785,16 +32785,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,16 +32803,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>362.5355639238086</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33037,10 +33037,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33733,13 +33733,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33748,16 +33748,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>139.5228722182831</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33988,16 +33988,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>359.1374415194863</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34225,16 +34225,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>353.130074847795</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34450,25 +34450,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>614.7544723218309</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>172.7600739089031</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34798,7 +34798,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34877,7 +34877,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>30.5062939846099</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K5" t="n">
-        <v>96.97205527330146</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L5" t="n">
-        <v>157.5769163494298</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M5" t="n">
-        <v>207.3240120116454</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N5" t="n">
-        <v>215.3391437804468</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O5" t="n">
-        <v>189.8686863166617</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>127.1990351868359</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>46.86183809487827</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>77.51098948354309</v>
+        <v>172.7600739089031</v>
       </c>
       <c r="L6" t="n">
-        <v>151.0135364221098</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
-        <v>270.6457911193447</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
-        <v>215.5139158908399</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>174.7088914046419</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>120.6909382194841</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>61.56391845784588</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>107.6302416736323</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L7" t="n">
-        <v>193.8169612267537</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M7" t="n">
-        <v>214.8468742022272</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N7" t="n">
-        <v>215.2278072772991</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O7" t="n">
-        <v>182.6196393733873</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>132.5043851238567</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>7.461309272877969</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.5343130705677</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.3793117313394</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.576302165507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>428.7491718087226</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.3471941559181</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.3374078091039</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.5361733430337</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.0384768797643</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2001390723434</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>188.9976037816851</v>
       </c>
       <c r="K9" t="n">
-        <v>187.5431097317922</v>
+        <v>450.9268494884371</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.5110943772548</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.7338065396993</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>390.9943459318891</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.2392020074649</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634694</v>
+        <v>249.5306650804295</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>230.2294360616047</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.53548676783599</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.6802301787334</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.3488267513694</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>277.914124009329</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.5155410641536</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.7881314254641</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.5721089186656</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>200.917535035767</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.82702814228612</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>282.3190661607202</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>474.3741250380626</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>625.7775560664393</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>728.2874363020583</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>744.73230092637</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>689.7596327870085</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>553.844392613483</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>367.2547334404112</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>127.3573607845842</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>597.9983376284119</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>628.3797610094306</v>
+        <v>20.64972152707382</v>
       </c>
       <c r="O12" t="n">
-        <v>416.8997075713295</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>423.8217357839152</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>35.68303457970742</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>79.77992211066052</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>262.2512393642057</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>391.678604124378</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>423.4642343883428</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>418.8847129209161</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>370.729754560636</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>293.4650856931359</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.9021551044799</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35737,16 +35737,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O15" t="n">
-        <v>228.3679864663302</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36214,10 +36214,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,16 +36451,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>222.5537898377871</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36685,10 +36685,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37396,16 +37396,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>8.181160134949776</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37636,16 +37636,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37873,16 +37873,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>476.2000925419567</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_13_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_13_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1803593.528563168</v>
+        <v>1805355.5937809</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12445534.67060185</v>
+        <v>12445480.89855084</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>417425.6313448951</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10182314.6790042</v>
+        <v>10182103.04786583</v>
       </c>
     </row>
     <row r="11">
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>32.55518202532709</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>215.0845781150035</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,22 +788,22 @@
         <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>148.466561390878</v>
+        <v>100.8958762748746</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -831,16 +831,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.28688718947265</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>53.91567440413856</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -913,10 +913,10 @@
         <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>212.5689651179052</v>
+        <v>97.26234557100793</v>
       </c>
       <c r="Y5" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
     </row>
     <row r="6">
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>109.317049263441</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1034,13 +1034,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>10.18456372565657</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1059,7 +1059,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>2.21468809059035</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>150.8301611088027</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>170.558787649064</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>253.9512290186734</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348405</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1226,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3351760237737</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614502</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115223</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901738</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0697045406877</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>224.0328052099121</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1299,7 +1299,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>90.06308666747704</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>196.4017961483599</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8053789271548</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1749784766143</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.74901076264499</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0311623452477</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>248.3364678822821</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1463,10 +1463,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4021710092738</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.82823269715946</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0489563585644</v>
       </c>
       <c r="T12" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3090395918921</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7478724655842</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>49.14474689968022</v>
       </c>
       <c r="E13" t="n">
-        <v>144.4286493356922</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>140.3028503125647</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0422364341347</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4093609706218</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1845243123506</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1770,10 +1770,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>49.48749137895456</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2010,16 +2010,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>131.952790326202</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>224.3745275802544</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187871</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,19 +2532,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>142.3575218158273</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>180.8758919807147</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2715,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>160.1763464053459</v>
+        <v>211.353176281105</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>26.1362719570585</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3438,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>25.52471385612597</v>
       </c>
       <c r="I37" t="n">
-        <v>41.02686156550217</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>94.30373791808189</v>
       </c>
       <c r="H40" t="n">
-        <v>36.39209596079192</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>35.88641949135589</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4030,7 +4030,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4149,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>160.6789846282037</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>60.86846495359764</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>683.2875691835748</v>
+        <v>586.7364457822816</v>
       </c>
       <c r="C2" t="n">
-        <v>683.2875691835748</v>
+        <v>586.7364457822816</v>
       </c>
       <c r="D2" t="n">
-        <v>683.2875691835748</v>
+        <v>586.7364457822816</v>
       </c>
       <c r="E2" t="n">
-        <v>416.9099126163967</v>
+        <v>586.7364457822816</v>
       </c>
       <c r="F2" t="n">
-        <v>150.5322560492186</v>
+        <v>320.3587892151036</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>287.4747669672985</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917587</v>
       </c>
       <c r="K2" t="n">
         <v>142.2640879052542</v>
@@ -4339,13 +4339,13 @@
         <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991319</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358417</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4357,25 +4357,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946894</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>900.5447187946894</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="U2" t="n">
-        <v>683.2875691835748</v>
+        <v>586.7364457822816</v>
       </c>
       <c r="V2" t="n">
-        <v>683.2875691835748</v>
+        <v>586.7364457822816</v>
       </c>
       <c r="W2" t="n">
-        <v>683.2875691835748</v>
+        <v>586.7364457822816</v>
       </c>
       <c r="X2" t="n">
-        <v>683.2875691835748</v>
+        <v>586.7364457822816</v>
       </c>
       <c r="Y2" t="n">
-        <v>683.2875691835748</v>
+        <v>586.7364457822816</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.0971104001205</v>
+        <v>785.9683112763772</v>
       </c>
       <c r="C3" t="n">
-        <v>21.0971104001205</v>
+        <v>611.5152819952502</v>
       </c>
       <c r="D3" t="n">
-        <v>21.0971104001205</v>
+        <v>462.580872333999</v>
       </c>
       <c r="E3" t="n">
-        <v>21.0971104001205</v>
+        <v>303.3434173285435</v>
       </c>
       <c r="F3" t="n">
-        <v>21.0971104001205</v>
+        <v>303.3434173285435</v>
       </c>
       <c r="G3" t="n">
-        <v>21.0971104001205</v>
+        <v>165.9467308776107</v>
       </c>
       <c r="H3" t="n">
-        <v>21.0971104001205</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="I3" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>117.4455628004802</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699346</v>
+        <v>192.1295835699344</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302313</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267552</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293602</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O3" t="n">
-        <v>909.46721075609</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789494</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4436,25 +4436,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>887.8833378166546</v>
       </c>
       <c r="T3" t="n">
-        <v>886.5534125856657</v>
+        <v>785.9683112763772</v>
       </c>
       <c r="U3" t="n">
-        <v>886.5534125856657</v>
+        <v>785.9683112763772</v>
       </c>
       <c r="V3" t="n">
-        <v>651.401304353923</v>
+        <v>785.9683112763772</v>
       </c>
       <c r="W3" t="n">
-        <v>397.1639476257213</v>
+        <v>785.9683112763772</v>
       </c>
       <c r="X3" t="n">
-        <v>189.3124474201885</v>
+        <v>785.9683112763772</v>
       </c>
       <c r="Y3" t="n">
-        <v>189.3124474201885</v>
+        <v>785.9683112763772</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>652.4144760322552</v>
+        <v>818.7467779998875</v>
       </c>
       <c r="C4" t="n">
-        <v>483.4782931043483</v>
+        <v>649.8105950719806</v>
       </c>
       <c r="D4" t="n">
-        <v>333.3616536920125</v>
+        <v>499.6939556596449</v>
       </c>
       <c r="E4" t="n">
-        <v>185.4485601096194</v>
+        <v>351.7808620772518</v>
       </c>
       <c r="F4" t="n">
-        <v>38.55861261170904</v>
+        <v>204.8909145793414</v>
       </c>
       <c r="G4" t="n">
-        <v>38.55861261170904</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H4" t="n">
-        <v>38.55861261170904</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I4" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J4" t="n">
         <v>21.0971104001205</v>
@@ -4497,13 +4497,13 @@
         <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375339</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227051</v>
+        <v>739.1822330227048</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075547</v>
+        <v>918.4699372075545</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4530,10 +4530,10 @@
         <v>1054.855520006025</v>
       </c>
       <c r="X4" t="n">
-        <v>1054.855520006025</v>
+        <v>1000.395242830127</v>
       </c>
       <c r="Y4" t="n">
-        <v>834.0629408624949</v>
+        <v>1000.395242830127</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>307.3840804899465</v>
+        <v>423.8554133656</v>
       </c>
       <c r="C5" t="n">
-        <v>307.3840804899465</v>
+        <v>157.477756798422</v>
       </c>
       <c r="D5" t="n">
-        <v>307.3840804899465</v>
+        <v>157.477756798422</v>
       </c>
       <c r="E5" t="n">
-        <v>307.3840804899465</v>
+        <v>157.477756798422</v>
       </c>
       <c r="F5" t="n">
-        <v>300.438579740743</v>
+        <v>150.5322560492186</v>
       </c>
       <c r="G5" t="n">
-        <v>287.4747669672986</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H5" t="n">
-        <v>21.0971104001205</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I5" t="n">
         <v>21.0971104001205</v>
@@ -4582,7 +4582,7 @@
         <v>704.5463761991318</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358417</v>
+        <v>888.5149683358414</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4609,10 +4609,10 @@
         <v>1054.855520006025</v>
       </c>
       <c r="X5" t="n">
-        <v>840.1393936243026</v>
+        <v>956.6107264999562</v>
       </c>
       <c r="Y5" t="n">
-        <v>573.7617370571245</v>
+        <v>690.2330699327781</v>
       </c>
     </row>
     <row r="6">
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.0971104001205</v>
+        <v>650.2565623210693</v>
       </c>
       <c r="C6" t="n">
-        <v>21.0971104001205</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D6" t="n">
-        <v>21.0971104001205</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E6" t="n">
-        <v>21.0971104001205</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F6" t="n">
         <v>21.0971104001205</v>
@@ -4649,22 +4649,22 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699346</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L6" t="n">
-        <v>338.8740072302313</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267552</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293602</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O6" t="n">
-        <v>909.46721075609</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789494</v>
+        <v>930.1763583891336</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
@@ -4682,16 +4682,16 @@
         <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>801.3675279810725</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W6" t="n">
-        <v>547.1301712528709</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="X6" t="n">
-        <v>339.2786710473381</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="Y6" t="n">
-        <v>131.5183722823842</v>
+        <v>818.4718993411373</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>652.4144760322549</v>
+        <v>500.0607779425552</v>
       </c>
       <c r="C7" t="n">
-        <v>483.478293104348</v>
+        <v>331.1245950146483</v>
       </c>
       <c r="D7" t="n">
-        <v>333.3616536920123</v>
+        <v>331.1245950146483</v>
       </c>
       <c r="E7" t="n">
-        <v>185.4485601096192</v>
+        <v>183.2115014322552</v>
       </c>
       <c r="F7" t="n">
-        <v>38.55861261170881</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="G7" t="n">
-        <v>38.55861261170881</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H7" t="n">
         <v>36.32155393434482</v>
@@ -4767,10 +4767,10 @@
         <v>1054.855520006025</v>
       </c>
       <c r="X7" t="n">
-        <v>1054.855520006025</v>
+        <v>902.5018219163251</v>
       </c>
       <c r="Y7" t="n">
-        <v>834.0629408624947</v>
+        <v>681.7092427727949</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1378.532714887381</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="C8" t="n">
-        <v>1378.532714887381</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="D8" t="n">
-        <v>1020.267016280631</v>
+        <v>1520.242087179721</v>
       </c>
       <c r="E8" t="n">
-        <v>634.4787636823867</v>
+        <v>1134.453834581477</v>
       </c>
       <c r="F8" t="n">
-        <v>223.4928588927791</v>
+        <v>723.4679297918692</v>
       </c>
       <c r="G8" t="n">
-        <v>51.21125520685586</v>
+        <v>307.7631795161581</v>
       </c>
       <c r="H8" t="n">
-        <v>51.21125520685586</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685586</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467179</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607439</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045954</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995231</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.59168520959</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940603</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550206</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661173</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342793</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2435.830015762146</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2435.830015762146</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U8" t="n">
-        <v>2435.830015762146</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V8" t="n">
-        <v>2104.767128418575</v>
+        <v>2231.276441056586</v>
       </c>
       <c r="W8" t="n">
-        <v>1751.998473148461</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X8" t="n">
-        <v>1378.532714887381</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="Y8" t="n">
-        <v>1378.532714887381</v>
+        <v>1878.507785786471</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041138965633</v>
+        <v>931.3041410966393</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8510846154363</v>
+        <v>756.8511118155124</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541851</v>
+        <v>607.916702154261</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487295</v>
+        <v>448.6792471488054</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446619756144</v>
+        <v>302.1446891756905</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4424639718026</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993893</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685586</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J9" t="n">
-        <v>238.3188829507241</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K9" t="n">
-        <v>684.7364639442768</v>
+        <v>684.9695361605191</v>
       </c>
       <c r="L9" t="n">
-        <v>979.272447377759</v>
+        <v>979.6730931919908</v>
       </c>
       <c r="M9" t="n">
-        <v>1342.338915852061</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N9" t="n">
-        <v>1729.423318324632</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O9" t="n">
-        <v>2061.310128312022</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P9" t="n">
-        <v>2308.345486741647</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.272628442635</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342793</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251708</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685357</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520714847062</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.36860661532</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131249887118</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279749681585</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519450916631</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>461.2368923627319</v>
+        <v>518.2127024906389</v>
       </c>
       <c r="C10" t="n">
-        <v>292.300709434825</v>
+        <v>349.276519562732</v>
       </c>
       <c r="D10" t="n">
-        <v>142.1840700224892</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E10" t="n">
-        <v>51.21125520685586</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="F10" t="n">
-        <v>51.21125520685586</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685586</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685586</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685586</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380192</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676576</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368933</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904054</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101615</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931094</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616503</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477367</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477367</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477367</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.769145477367</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U10" t="n">
-        <v>1635.769145477367</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.08465727148</v>
+        <v>1438.060467399387</v>
       </c>
       <c r="W10" t="n">
-        <v>1091.667487234519</v>
+        <v>1148.643297362426</v>
       </c>
       <c r="X10" t="n">
-        <v>863.6779363365017</v>
+        <v>920.6537464644088</v>
       </c>
       <c r="Y10" t="n">
-        <v>642.8853571929716</v>
+        <v>699.8611673208786</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.747847446864</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.785330506452</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.519631899702</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.731379301458</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.74547451185</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8006473127038</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.76531551814388</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.21173263691981</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>377.8919112275248</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.294739903931</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1477.735160302613</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2205.327574907686</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2949.307003834352</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3638.490420549537</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4192.191521035119</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4559.825241454991</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4688.265775907194</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4603.670815540885</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4402.629237414372</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.784320361562</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.721433017992</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.952777747877</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.487019486798</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.347687510986</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.3991132778466</v>
+        <v>943.3595186577121</v>
       </c>
       <c r="C12" t="n">
-        <v>768.9460839967196</v>
+        <v>768.9064893765851</v>
       </c>
       <c r="D12" t="n">
-        <v>620.0116743354683</v>
+        <v>619.9720797153338</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7346247098784</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2000667367634</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4402980405272</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.76531551814388</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.76531551814388</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.76531551814388</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>427.5155625826349</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349513</v>
+        <v>922.6064982546599</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1374.077246645175</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373306</v>
+        <v>2001.394112763707</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.046693765828</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.046693765828</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.046693765828</v>
       </c>
       <c r="R12" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.046693765828</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.815424716773</v>
       </c>
       <c r="T12" t="n">
-        <v>2244.643795685161</v>
+        <v>2244.604273613852</v>
       </c>
       <c r="U12" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.576119608211</v>
       </c>
       <c r="V12" t="n">
-        <v>1781.463605996603</v>
+        <v>1781.424011376468</v>
       </c>
       <c r="W12" t="n">
-        <v>1527.226249268401</v>
+        <v>1527.186654648267</v>
       </c>
       <c r="X12" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.335154442734</v>
       </c>
       <c r="Y12" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.57485567778</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703114</v>
+        <v>579.9295659037452</v>
       </c>
       <c r="C13" t="n">
-        <v>695.5020655703114</v>
+        <v>579.9295659037452</v>
       </c>
       <c r="D13" t="n">
-        <v>695.5020655703114</v>
+        <v>530.2884074192198</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>382.3753138368266</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>235.4853663389163</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>235.4853663389163</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.76531551814388</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.76531551814388</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>173.9372723687388</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.521262039843</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>825.7851432062823</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1247.652809956956</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1664.924022934751</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2034.325229908153</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2326.891096275499</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.013457116468</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.013457116468</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2263.142511223403</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2043.537096101563</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1754.46181901838</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1499.777330812493</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1210.360160775532</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>982.3706098775151</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>761.578030733985</v>
       </c>
     </row>
     <row r="14">
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5357,16 +5357,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
         <v>2001.151557821488</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>718.5507239167111</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>549.6145409888043</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>549.6145409888043</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V16" t="n">
-        <v>1638.398488825459</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W16" t="n">
-        <v>1348.981318788498</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X16" t="n">
-        <v>1120.991767890481</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y16" t="n">
-        <v>900.1991887469509</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="17">
@@ -5497,13 +5497,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5524,16 +5524,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5658,13 +5658,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5734,28 +5734,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5770,7 +5770,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,13 +5828,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>915.1035305473698</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C22" t="n">
-        <v>781.8178837532264</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D22" t="n">
-        <v>631.7012443408906</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1644.59975125005</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588917</v>
+        <v>1355.182581213089</v>
       </c>
       <c r="X22" t="n">
-        <v>1135.8961096909</v>
+        <v>1127.193030315072</v>
       </c>
       <c r="Y22" t="n">
-        <v>915.1035305473698</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="23">
@@ -5980,28 +5980,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>800.6374272687975</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C25" t="n">
-        <v>631.7012443408906</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D25" t="n">
-        <v>631.7012443408906</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
         <v>631.7012443408906</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1833.665603928865</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y25" t="n">
-        <v>800.6374272687975</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="26">
@@ -6208,10 +6208,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6220,25 +6220,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6363,22 +6363,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6445,16 +6445,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6463,19 +6463,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6651,22 +6651,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1983.574488637966</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1983.574488637966</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1728.890000432079</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1439.472830395119</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1211.483279497101</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="32">
@@ -6691,31 +6691,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>788.0191461778176</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2420.562808876161</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2420.562808876161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6919,16 +6919,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7028,7 +7028,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>916.3099000622261</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C37" t="n">
-        <v>747.3737171343192</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D37" t="n">
-        <v>597.2570777219835</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E37" t="n">
-        <v>449.3439841395904</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="F37" t="n">
-        <v>302.45403664168</v>
+        <v>119.599202296584</v>
       </c>
       <c r="G37" t="n">
-        <v>135.2579373565599</v>
+        <v>119.599202296584</v>
       </c>
       <c r="H37" t="n">
-        <v>135.2579373565599</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U37" t="n">
-        <v>2090.842153176861</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V37" t="n">
-        <v>1836.157664970974</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W37" t="n">
-        <v>1546.740494934013</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X37" t="n">
-        <v>1318.750944035996</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y37" t="n">
-        <v>1097.958364892466</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="38">
@@ -7156,7 +7156,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>696.7084350851671</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C40" t="n">
-        <v>527.7722521572603</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D40" t="n">
-        <v>527.7722521572603</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E40" t="n">
-        <v>379.8591585748671</v>
+        <v>335.9629114732377</v>
       </c>
       <c r="F40" t="n">
-        <v>379.8591585748671</v>
+        <v>189.0729639753273</v>
       </c>
       <c r="G40" t="n">
-        <v>212.6630592897471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993915</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W40" t="n">
-        <v>1327.139029956954</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X40" t="n">
-        <v>1099.149479058937</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y40" t="n">
-        <v>878.3568999154069</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="41">
@@ -7393,16 +7393,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7502,7 +7502,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.58045691144</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C43" t="n">
-        <v>847.6442739835331</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711974</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2410.714175003133</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2410.714175003133</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2191.112710026075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7651,10 +7651,10 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014779</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U46" t="n">
-        <v>1882.204779583153</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V46" t="n">
-        <v>1627.520291377266</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W46" t="n">
-        <v>1338.103121340305</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442288</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>99.37288961069063</v>
       </c>
       <c r="K3" t="n">
-        <v>97.32166909127264</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
-        <v>97.32166909127264</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>97.32166909127245</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>113.8482254012555</v>
+        <v>138.9393975111066</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>2.569396338516015</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>99.47072611853213</v>
       </c>
       <c r="E13" t="n">
-        <v>2.005313310877</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5250535492193</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.29336059121923</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.41639999081852</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23658,10 +23658,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>202.6501519448734</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23898,16 +23898,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>35.29403077242586</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,16 +24177,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>27.76311574357362</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24372,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,19 +24420,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>143.8269525734169</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>37.70876137138006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>119.8635921600923</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,10 +24891,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>57.22910392194237</v>
+        <v>6.0522740461833</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>154.8900140445861</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>114.7699989900979</v>
       </c>
       <c r="I37" t="n">
-        <v>40.23897475306337</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>71.22040037418695</v>
       </c>
       <c r="H40" t="n">
-        <v>103.902616885432</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>104.0840080815017</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>30.48882721876579</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,16 +26073,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>191.2691783702303</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>898266.689534026</v>
+        <v>898273.679900657</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>875611.8662119168</v>
+        <v>875366.5399817891</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>875611.8662119168</v>
+        <v>875611.8662119167</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>875611.8662119169</v>
+        <v>875611.8662119168</v>
       </c>
     </row>
     <row r="9">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>554203.1946583911</v>
+      </c>
+      <c r="C2" t="n">
+        <v>554203.1946583911</v>
+      </c>
+      <c r="D2" t="n">
         <v>554203.1946583912</v>
       </c>
-      <c r="C2" t="n">
-        <v>554203.1946583912</v>
-      </c>
-      <c r="D2" t="n">
-        <v>554203.1946583909</v>
-      </c>
       <c r="E2" t="n">
+        <v>544669.9127392784</v>
+      </c>
+      <c r="F2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="G2" t="n">
+        <v>544823.9547907537</v>
+      </c>
+      <c r="H2" t="n">
         <v>544823.9547907539</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
         <v>544823.9547907539</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="K2" t="n">
         <v>544823.9547907539</v>
       </c>
-      <c r="H2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="I2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>544823.9547907539</v>
       </c>
-      <c r="K2" t="n">
-        <v>544823.9547907538</v>
-      </c>
-      <c r="L2" t="n">
-        <v>544823.9547907542</v>
-      </c>
       <c r="M2" t="n">
+        <v>544823.9547907537</v>
+      </c>
+      <c r="N2" t="n">
+        <v>544823.9547907537</v>
+      </c>
+      <c r="O2" t="n">
         <v>544823.9547907539</v>
       </c>
-      <c r="N2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="O2" t="n">
-        <v>544823.9547907541</v>
-      </c>
       <c r="P2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907539</v>
       </c>
     </row>
     <row r="3">
@@ -26371,37 +26371,37 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580813</v>
+        <v>391128.3638059436</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606911</v>
+        <v>506886.0326267351</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>585.0966390476535</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.1544191141</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101823</v>
+        <v>95382.64613756978</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954684</v>
+        <v>132447.3436061359</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>157.2049554772792</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26423,13 +26423,13 @@
         <v>247648.567042389</v>
       </c>
       <c r="D4" t="n">
-        <v>135650.8557716738</v>
+        <v>135522.1369769831</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744282</v>
+        <v>8726.922639831257</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="G4" t="n">
         <v>8727.256391744282</v>
@@ -26469,16 +26469,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567916</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101072.4410767593</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-436581.1561794573</v>
       </c>
       <c r="C6" t="n">
-        <v>243506.824411736</v>
+        <v>243506.8244117358</v>
       </c>
       <c r="D6" t="n">
-        <v>-65030.53634704337</v>
+        <v>-65385.07856438027</v>
       </c>
       <c r="E6" t="n">
-        <v>-73282.44273994555</v>
+        <v>-72050.79205559955</v>
       </c>
       <c r="F6" t="n">
-        <v>434626.7893207458</v>
+        <v>434354.3340106191</v>
       </c>
       <c r="G6" t="n">
-        <v>434626.7893207456</v>
+        <v>434939.4306496666</v>
       </c>
       <c r="H6" t="n">
-        <v>434626.7893207457</v>
+        <v>434939.4306496667</v>
       </c>
       <c r="I6" t="n">
-        <v>434626.7893207458</v>
+        <v>434939.4306496669</v>
       </c>
       <c r="J6" t="n">
-        <v>365627.6349016314</v>
+        <v>365940.2762305526</v>
       </c>
       <c r="K6" t="n">
-        <v>434626.7893207454</v>
+        <v>434939.4306496668</v>
       </c>
       <c r="L6" t="n">
-        <v>339356.5515297276</v>
+        <v>339556.784512097</v>
       </c>
       <c r="M6" t="n">
-        <v>301908.8136252771</v>
+        <v>302492.0870435306</v>
       </c>
       <c r="N6" t="n">
-        <v>434626.7893207457</v>
+        <v>434782.2256941893</v>
       </c>
       <c r="O6" t="n">
-        <v>434626.7893207458</v>
+        <v>434939.4306496668</v>
       </c>
       <c r="P6" t="n">
-        <v>434626.7893207458</v>
+        <v>434939.4306496668</v>
       </c>
     </row>
   </sheetData>
@@ -26743,10 +26743,10 @@
         <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627848</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.467948760091</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856982</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.066443976798</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26965,19 +26965,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933065</v>
+        <v>320.0098783480611</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788891</v>
+        <v>433.4030566425519</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>0.5075515815824474</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,19 +27011,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841919</v>
+        <v>376.8709520985329</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139501</v>
+        <v>531.4816118767592</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.6418441228499887</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,19 +27035,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841919</v>
+        <v>376.8709520985329</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139501</v>
+        <v>531.4816118767592</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>0.6418441228499887</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27257,19 +27257,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841919</v>
+        <v>376.8709520985329</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139501</v>
+        <v>531.4816118767592</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>0.6418441228499887</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>118.2164900707555</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>143.1621657402052</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>380.2789926203829</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776178</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>36.063589763279</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,22 +27508,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>46.3744261939988</v>
+        <v>93.94511131000219</v>
       </c>
       <c r="U3" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27551,16 +27551,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>104.8636863353359</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>171.7939809848986</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.0199616619743</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>50.47975262776174</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>157.1621355605638</v>
+        <v>272.4687551074611</v>
       </c>
       <c r="Y5" t="n">
-        <v>122.5240586545473</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="6">
@@ -27694,19 +27694,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>57.2161343864263</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
@@ -27754,13 +27754,13 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>195.5884214778209</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27779,7 +27779,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27791,7 +27791,7 @@
         <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>150.1674712452664</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
         <v>122.1505735248085</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>74.87949428023444</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>240.9903721391855</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203004</v>
+        <v>47.06732354373202</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465005</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896856</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27988,7 +27988,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>1.776449164520784</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>56.37087597909213</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3072536117062</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590395</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430994</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640952</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503844</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103387</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>55.73584717546808</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885564</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.4413278954668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157559</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
-        <v>318.580217597254</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.46916277632</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354942</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359953</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>669.760257752509</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307906</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983032</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542137</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864755</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140488</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944157</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508451</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436934</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035144</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026285</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079429</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502175</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.065474157129</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617177</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152224</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519093</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947597</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463707</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204791</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366407</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133952</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419036</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752563</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840007</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6342251841589</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954062</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772522</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490128</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023131</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462355</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046259</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708735</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939805</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307429</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658783</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942766</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650352</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.497358587980262</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.29982363915288</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>211.9369169631093</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.5814384565902</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.2846274857949</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.524415372696</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.2880661616899</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>980.9074362497889</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.2430767905602</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.5270366497973</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.6528822177539</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.3234514022155</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.2710588236004</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.06468721888361</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4397886870384209</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.9413461539368</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.40721153933699</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>474.9629006556631</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.6462339940408</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>598.1650929023365</v>
       </c>
       <c r="N12" t="n">
-        <v>151.9914336104071</v>
+        <v>764.9951122030628</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>699.8210737395158</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.63421474527343</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.85568910292947</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.193509615390579</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.465925809239509</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.92432219487492</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.15711433603906</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.3409547132333</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.4957440189174</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.6159153118448</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.5450793519713</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.3539013357152</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.5474043823263</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.2425178738401</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.4876602627738</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.876991386351</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.9743616028376</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.53622845765972</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.134505044140337</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32077,10 +32077,10 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32089,7 +32089,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33748,10 +33748,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -34222,10 +34222,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>97.3216690912724</v>
       </c>
       <c r="K3" t="n">
-        <v>172.7600739089031</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
         <v>148.2266905659563</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>172.7600739089031</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L6" t="n">
         <v>148.2266905659563</v>
@@ -35035,7 +35035,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649641</v>
+        <v>125.9385470877689</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705677</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313394</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.576302165507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087226</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559181</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091039</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430337</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797643</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.2001390723434</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>188.9976037816851</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>450.9268494884371</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772548</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396993</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318891</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074649</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804295</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>230.2294360616047</v>
+        <v>255.4201198419612</v>
       </c>
       <c r="R9" t="n">
-        <v>24.53548676783599</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.6802301787334</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513694</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>277.914124009329</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641536</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254641</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186656</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>200.917535035767</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228612</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.461027392703357</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.5355339299039</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.1947764408143</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>631.7580004027088</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>734.9418329344172</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.4943726531981</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.1448653688734</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.2940408945278</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.3471923433044</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.7379135880834</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,28 +35491,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.1214616813041</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.0918542141666</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>456.0310589803182</v>
       </c>
       <c r="N12" t="n">
-        <v>20.64972152707382</v>
+        <v>633.6534001197296</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.2248292950713</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>80.98177459656048</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.2262521930345</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.205940572161</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.1289563138119</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.4860737149438</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.132532296366</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.5210771387336</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.3256170110794</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35737,7 +35737,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37396,10 +37396,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37870,10 +37870,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
